--- a/Pilates Atualizado.xlsx
+++ b/Pilates Atualizado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\an166\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaque\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99F9A0A0-279A-4C8E-A185-0F6A67C64CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B73256B-2D51-4097-AA7D-2C78E2A59223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-240" windowWidth="29040" windowHeight="16440" tabRatio="740" firstSheet="1" activeTab="1" xr2:uid="{85D64109-C4BD-4640-B4DE-BFE0FCD28244}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="740" firstSheet="1" activeTab="1" xr2:uid="{85D64109-C4BD-4640-B4DE-BFE0FCD28244}"/>
   </bookViews>
   <sheets>
     <sheet name="Formas de pagamento" sheetId="2" state="hidden" r:id="rId1"/>
@@ -28,6 +28,9 @@
     <sheet name="Novembro " sheetId="13" r:id="rId13"/>
     <sheet name="Dezembro" sheetId="14" r:id="rId14"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId15"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="50">
   <si>
     <t>DATA</t>
   </si>
@@ -441,7 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -484,6 +487,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -500,6 +506,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Novembro"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1199,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96779F98-2599-4D15-BE8D-1F3A9570FE32}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G15:O27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1299,7 @@
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="29">
-        <f>IF(H3&lt;&gt;"",G3-H3,G3)</f>
+        <f>IFERROR(IF(H3&lt;&gt;"",G3-H3,G3), "")</f>
         <v>0</v>
       </c>
     </row>
@@ -1593,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EA28DD-A4E6-4847-B6A3-65A0A4D39535}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H15:O27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,7 +1679,9 @@
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
+      <c r="D3" s="28">
+        <v>200</v>
+      </c>
       <c r="E3" s="28" t="s">
         <v>8</v>
       </c>
@@ -1670,12 +1691,12 @@
       </c>
       <c r="G3" s="28">
         <f>D3 - (D3 * F3)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="29">
-        <f>IF(H3&lt;&gt;"",G3-H3,G3)</f>
-        <v>0</v>
+        <f>IFERROR(IF(H3&lt;&gt;"",G3-H3,G3), "")</f>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1987,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE41F28-3690-43DE-8B5A-50A76EC639E4}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I13:O27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,7 +2075,9 @@
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
+      <c r="D3" s="28">
+        <v>30</v>
+      </c>
       <c r="E3" s="28" t="s">
         <v>8</v>
       </c>
@@ -2064,12 +2087,12 @@
       </c>
       <c r="G3" s="28">
         <f>D3 - (D3 * F3)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="29">
-        <f>IF(H3&lt;&gt;"",G3-H3,G3)</f>
-        <v>0</v>
+        <f>IFERROR(IF(H3&lt;&gt;"",G3-H3,G3), "")</f>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2078,7 +2101,6 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2381,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A921EC4-8A43-4954-9C98-5261E5D35CE7}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2462,7 +2484,7 @@
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="29">
-        <f>IF(H3&lt;&gt;"",G3-H3,G3)</f>
+        <f>IFERROR(IF(H3&lt;&gt;"",G3-H3,G3), "")</f>
         <v>0</v>
       </c>
     </row>
@@ -2775,8 +2797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F96BD8-C533-4806-8DED-1E5C712B280D}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="A1:L12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2856,7 +2878,7 @@
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="29">
-        <f>IF(H3&lt;&gt;"",G3-H3,G3)</f>
+        <f>IFERROR(IF(H3&lt;&gt;"",G3-H3,G3), "")</f>
         <v>0</v>
       </c>
     </row>
@@ -3169,8 +3191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF4AE11-0774-41BA-81C7-6156FFDAC36E}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3249,31 +3271,60 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="e">
-        <f>SUM(Janeiro!I3:I33)</f>
-        <v>#VALUE!</v>
+      <c r="A3" s="30">
+        <f>SUM(Janeiro!I3:I500)</f>
+        <v>174.2</v>
       </c>
       <c r="B3" s="30">
-        <f>SUM(Janeiro!J3:J33)</f>
+        <f>SUM(Fevereiro!I3:I500)</f>
+        <v>200</v>
+      </c>
+      <c r="C3" s="32">
+        <f>SUM(Março!I3:I500)</f>
+        <v>200</v>
+      </c>
+      <c r="D3" s="33">
+        <f>SUM(Abril!I3:I500)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
+      <c r="E3" s="28">
+        <f>SUM(Maio!I3:I500)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="28">
+        <f>SUM(Junho!I3:I500)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="28">
+        <f>SUM(Julho!I3:I500)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="28">
+        <f>SUM(Agosto!I3:I500)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="34">
+        <f>SUM(Setembro!I3:I500)</f>
+        <v>200</v>
+      </c>
+      <c r="J3" s="34">
+        <f>SUM(Outubro!J3:J500)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="34" t="e">
+        <f>SUM([1]Novembro!K3:K500)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L3" s="34">
+        <f>SUM(Setembro!L3:L500)</f>
+        <v>0</v>
+      </c>
       <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -3282,7 +3333,6 @@
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -3291,7 +3341,6 @@
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -3300,7 +3349,6 @@
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -3309,7 +3357,6 @@
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -3318,7 +3365,6 @@
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -3327,7 +3373,6 @@
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -3336,7 +3381,6 @@
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -3346,7 +3390,6 @@
       <c r="B12" s="11"/>
       <c r="C12" s="31"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -3354,18 +3397,6 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{248873A5-1B63-48E9-A346-8D164AB8A237}">
-          <x14:formula1>
-            <xm:f>'Formas de pagamento'!$A$3:$K$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>E3:E12</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3373,8 +3404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6715EA59-CAAF-44A7-8402-5AFDA526CD20}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3458,7 +3489,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="29">
-        <f>IF(H3&lt;&gt;"",G3-H3,G3)</f>
+        <f>IFERROR(IF(H3&lt;&gt;"",G3-H3,G3), "")</f>
         <v>174.2</v>
       </c>
     </row>
@@ -3480,9 +3511,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H4" s="28"/>
-      <c r="I4" s="29" t="e">
-        <f t="shared" ref="I4:I33" si="3">IF(H4&lt;&gt;"",G4-H4,G4)</f>
-        <v>#VALUE!</v>
+      <c r="I4" s="29" t="str">
+        <f t="shared" ref="I4:I33" si="3">IFERROR(IF(H4&lt;&gt;"",G4-H4,G4), "")</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3503,9 +3534,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H5" s="28"/>
-      <c r="I5" s="29" t="e">
+      <c r="I5" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3526,9 +3557,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H6" s="28"/>
-      <c r="I6" s="29" t="e">
+      <c r="I6" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3549,9 +3580,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H7" s="28"/>
-      <c r="I7" s="29" t="e">
+      <c r="I7" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3572,9 +3603,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H8" s="28"/>
-      <c r="I8" s="29" t="e">
+      <c r="I8" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3595,9 +3626,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H9" s="28"/>
-      <c r="I9" s="29" t="e">
+      <c r="I9" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3618,9 +3649,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H10" s="28"/>
-      <c r="I10" s="29" t="e">
+      <c r="I10" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3641,9 +3672,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H11" s="28"/>
-      <c r="I11" s="29" t="e">
+      <c r="I11" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3664,9 +3695,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H12" s="28"/>
-      <c r="I12" s="29" t="e">
+      <c r="I12" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3687,9 +3718,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H13" s="28"/>
-      <c r="I13" s="29" t="e">
+      <c r="I13" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3710,9 +3741,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H14" s="28"/>
-      <c r="I14" s="29" t="e">
+      <c r="I14" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3733,9 +3764,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H15" s="28"/>
-      <c r="I15" s="29" t="e">
+      <c r="I15" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3756,9 +3787,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H16" s="28"/>
-      <c r="I16" s="29" t="e">
+      <c r="I16" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3779,9 +3810,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H17" s="28"/>
-      <c r="I17" s="29" t="e">
+      <c r="I17" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3802,9 +3833,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H18" s="28"/>
-      <c r="I18" s="29" t="e">
+      <c r="I18" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3825,9 +3856,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H19" s="28"/>
-      <c r="I19" s="29" t="e">
+      <c r="I19" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3848,9 +3879,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H20" s="28"/>
-      <c r="I20" s="29" t="e">
+      <c r="I20" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3871,9 +3902,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H21" s="28"/>
-      <c r="I21" s="29" t="e">
+      <c r="I21" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3894,9 +3925,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H22" s="28"/>
-      <c r="I22" s="29" t="e">
+      <c r="I22" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3917,9 +3948,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H23" s="28"/>
-      <c r="I23" s="29" t="e">
+      <c r="I23" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3940,9 +3971,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H24" s="28"/>
-      <c r="I24" s="29" t="e">
+      <c r="I24" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3963,9 +3994,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H25" s="28"/>
-      <c r="I25" s="29" t="e">
+      <c r="I25" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3986,9 +4017,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H26" s="28"/>
-      <c r="I26" s="29" t="e">
+      <c r="I26" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4009,9 +4040,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H27" s="28"/>
-      <c r="I27" s="29" t="e">
+      <c r="I27" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4032,9 +4063,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H28" s="28"/>
-      <c r="I28" s="29" t="e">
+      <c r="I28" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4055,9 +4086,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H29" s="28"/>
-      <c r="I29" s="29" t="e">
+      <c r="I29" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4078,9 +4109,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H30" s="28"/>
-      <c r="I30" s="29" t="e">
+      <c r="I30" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4101,9 +4132,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H31" s="28"/>
-      <c r="I31" s="29" t="e">
+      <c r="I31" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4124,9 +4155,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H32" s="28"/>
-      <c r="I32" s="29" t="e">
+      <c r="I32" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4147,9 +4178,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H33" s="28"/>
-      <c r="I33" s="29" t="e">
+      <c r="I33" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -4191,8 +4222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52888559-C0ED-40B9-99BB-62292F0254FA}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4274,7 +4305,7 @@
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="29">
-        <f>IF(H3&lt;&gt;"",G3-H3,G3)</f>
+        <f>IFERROR(IF(H3&lt;&gt;"",G3-H3,G3), "")</f>
         <v>200</v>
       </c>
     </row>
@@ -4588,7 +4619,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K17:O24"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4654,7 +4685,9 @@
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
+      <c r="D3" s="28">
+        <v>200</v>
+      </c>
       <c r="E3" s="28" t="s">
         <v>8</v>
       </c>
@@ -4664,12 +4697,12 @@
       </c>
       <c r="G3" s="28">
         <f>D3 - (D3 * F3)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="29">
-        <f>IF(H3&lt;&gt;"",G3-H3,G3)</f>
-        <v>0</v>
+        <f>IFERROR(IF(H3&lt;&gt;"",G3-H3,G3), "")</f>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4981,8 +5014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F41DBB4-61E1-4893-941C-E1BEAB54DE63}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H15:O28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5062,7 +5095,7 @@
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="29">
-        <f>IF(H3&lt;&gt;"",G3-H3,G3)</f>
+        <f>IFERROR(IF(H3&lt;&gt;"",G3-H3,G3), "")</f>
         <v>0</v>
       </c>
     </row>
@@ -5375,8 +5408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A830FC-4B31-4261-8749-25A61AE7F2A9}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H16:P25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5443,21 +5476,19 @@
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
       <c r="D3" s="28"/>
-      <c r="E3" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="28">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28" t="str">
         <f>IF(E3="Dinheiro",0,IF(E3="Débito",0.018,IF(E3="Crédito",0.029,"")))</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="28">
+        <v/>
+      </c>
+      <c r="G3" s="28" t="e">
         <f>D3 - (D3 * F3)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H3" s="28"/>
-      <c r="I3" s="29">
-        <f>IF(H3&lt;&gt;"",G3-H3,G3)</f>
-        <v>0</v>
+      <c r="I3" s="29" t="str">
+        <f>IFERROR(IF(H3&lt;&gt;"",G3-H3,G3), "")</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -5770,7 +5801,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K12:O25"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5850,7 +5881,7 @@
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="29">
-        <f>IF(H3&lt;&gt;"",G3-H3,G3)</f>
+        <f>IFERROR(IF(H3&lt;&gt;"",G3-H3,G3), "")</f>
         <v>0</v>
       </c>
     </row>
@@ -6163,8 +6194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994EA105-4B69-4B21-9CFE-0652D35450C8}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G15:N26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6244,7 +6275,7 @@
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="29">
-        <f>IF(H3&lt;&gt;"",G3-H3,G3)</f>
+        <f>IFERROR(IF(H3&lt;&gt;"",G3-H3,G3), "")</f>
         <v>0</v>
       </c>
     </row>
